--- a/6_data.xlsx
+++ b/6_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income_Statement" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost_of_Goods_Sold</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Profit</t>
+          <t>Operating_Expenses</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Operating_Profit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Net_Profit</t>
         </is>
       </c>
     </row>
@@ -462,13 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202483.57</v>
+        <v>504967.14</v>
       </c>
       <c r="C2" t="n">
-        <v>160755.13</v>
+        <v>325924.83</v>
       </c>
       <c r="D2" t="n">
-        <v>41728.44</v>
+        <v>107032.54</v>
+      </c>
+      <c r="E2" t="n">
+        <v>72009.77</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57607.82</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201763.13</v>
+        <v>503544.06</v>
       </c>
       <c r="C3" t="n">
-        <v>152336.52</v>
+        <v>310319.06</v>
       </c>
       <c r="D3" t="n">
-        <v>49426.61</v>
+        <v>136623.83</v>
+      </c>
+      <c r="E3" t="n">
+        <v>56601.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45280.94</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208177.46</v>
+        <v>516378.84</v>
       </c>
       <c r="C4" t="n">
-        <v>164022.98</v>
+        <v>330960.02</v>
       </c>
       <c r="D4" t="n">
-        <v>44154.48</v>
+        <v>142561.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>42857.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34286.17</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235814.63</v>
+        <v>581649.14</v>
       </c>
       <c r="C5" t="n">
-        <v>183691.46</v>
+        <v>368895.91</v>
       </c>
       <c r="D5" t="n">
-        <v>52123.18</v>
+        <v>148976.47</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63776.77</v>
+      </c>
+      <c r="F5" t="n">
+        <v>51021.41</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208829.23</v>
+        <v>517658.47</v>
       </c>
       <c r="C6" t="n">
-        <v>150269.34</v>
+        <v>305255.43</v>
       </c>
       <c r="D6" t="n">
-        <v>58559.89</v>
+        <v>143441.46</v>
+      </c>
+      <c r="E6" t="n">
+        <v>68961.57000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>55169.26</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211406.48</v>
+        <v>522782.4</v>
       </c>
       <c r="C7" t="n">
-        <v>165821.93</v>
+        <v>333682.14</v>
       </c>
       <c r="D7" t="n">
-        <v>45584.56</v>
+        <v>130371.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>58729.01</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46983.21</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223082.03</v>
+        <v>546090.16</v>
       </c>
       <c r="C8" t="n">
-        <v>137797.44</v>
+        <v>280293.81</v>
       </c>
       <c r="D8" t="n">
-        <v>85284.59</v>
+        <v>137763.96</v>
+      </c>
+      <c r="E8" t="n">
+        <v>128032.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>102425.91</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>243446.63</v>
+        <v>596749.95</v>
       </c>
       <c r="C9" t="n">
-        <v>155610.25</v>
+        <v>315917.89</v>
       </c>
       <c r="D9" t="n">
-        <v>87836.38</v>
+        <v>144863.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>135968.56</v>
+      </c>
+      <c r="F9" t="n">
+        <v>108774.85</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218152.63</v>
+        <v>536105.26</v>
       </c>
       <c r="C10" t="n">
-        <v>132864.87</v>
+        <v>271689.62</v>
       </c>
       <c r="D10" t="n">
-        <v>85287.75999999999</v>
+        <v>108583.78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>155831.86</v>
+      </c>
+      <c r="F10" t="n">
+        <v>124665.48</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225918.83</v>
+        <v>551554.3199999999</v>
       </c>
       <c r="C11" t="n">
-        <v>150250.95</v>
+        <v>302692.76</v>
       </c>
       <c r="D11" t="n">
-        <v>75667.88</v>
+        <v>116261.66</v>
+      </c>
+      <c r="E11" t="n">
+        <v>132599.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>106079.92</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>223628.18</v>
+        <v>546875.77</v>
       </c>
       <c r="C12" t="n">
-        <v>151560.74</v>
+        <v>305321.62</v>
       </c>
       <c r="D12" t="n">
-        <v>72067.42999999999</v>
+        <v>111093.94</v>
+      </c>
+      <c r="E12" t="n">
+        <v>130460.22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>104368.17</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>249261.28</v>
+        <v>607981.33</v>
       </c>
       <c r="C13" t="n">
-        <v>163084.13</v>
+        <v>328736.93</v>
       </c>
       <c r="D13" t="n">
-        <v>86177.14999999999</v>
+        <v>160288.83</v>
+      </c>
+      <c r="E13" t="n">
+        <v>118955.56</v>
+      </c>
+      <c r="F13" t="n">
+        <v>95164.45</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>232734.81</v>
+        <v>564851.62</v>
       </c>
       <c r="C14" t="n">
-        <v>178216.1</v>
+        <v>352642.87</v>
       </c>
       <c r="D14" t="n">
-        <v>54518.71</v>
+        <v>130726.77</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81481.98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>65185.58</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +758,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>224799.93</v>
+        <v>548841.0699999999</v>
       </c>
       <c r="C15" t="n">
-        <v>150919.58</v>
+        <v>303790.67</v>
       </c>
       <c r="D15" t="n">
-        <v>73880.35000000001</v>
+        <v>137680.66</v>
+      </c>
+      <c r="E15" t="n">
+        <v>107369.74</v>
+      </c>
+      <c r="F15" t="n">
+        <v>85895.78999999999</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +780,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>228617.94</v>
+        <v>556321.17</v>
       </c>
       <c r="C16" t="n">
-        <v>150016.1</v>
+        <v>301604.06</v>
       </c>
       <c r="D16" t="n">
-        <v>78601.84</v>
+        <v>161754.08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>92963.03</v>
+      </c>
+      <c r="F16" t="n">
+        <v>74370.42999999999</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +802,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261357.99</v>
+        <v>631521.29</v>
       </c>
       <c r="C17" t="n">
-        <v>185182.38</v>
+        <v>367169.27</v>
       </c>
       <c r="D17" t="n">
-        <v>76175.60000000001</v>
+        <v>142047.59</v>
+      </c>
+      <c r="E17" t="n">
+        <v>122304.43</v>
+      </c>
+      <c r="F17" t="n">
+        <v>97843.55</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +824,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>238037.09</v>
+        <v>574800.97</v>
       </c>
       <c r="C18" t="n">
-        <v>149531.3</v>
+        <v>299550.99</v>
       </c>
       <c r="D18" t="n">
-        <v>88505.8</v>
+        <v>138549.04</v>
+      </c>
+      <c r="E18" t="n">
+        <v>136700.93</v>
+      </c>
+      <c r="F18" t="n">
+        <v>109360.75</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +846,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247655.88</v>
+        <v>593835.3</v>
       </c>
       <c r="C19" t="n">
-        <v>188327.29</v>
+        <v>368373.58</v>
       </c>
       <c r="D19" t="n">
-        <v>59328.59</v>
+        <v>163634.35</v>
+      </c>
+      <c r="E19" t="n">
+        <v>61827.36</v>
+      </c>
+      <c r="F19" t="n">
+        <v>49461.89</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +868,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>244564.53</v>
+        <v>587432.92</v>
       </c>
       <c r="C20" t="n">
-        <v>150385.21</v>
+        <v>300285.49</v>
       </c>
       <c r="D20" t="n">
-        <v>94179.32000000001</v>
+        <v>130926.94</v>
+      </c>
+      <c r="E20" t="n">
+        <v>156220.49</v>
+      </c>
+      <c r="F20" t="n">
+        <v>124976.39</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +890,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>270316.38</v>
+        <v>648506.9</v>
       </c>
       <c r="C21" t="n">
-        <v>215544.17</v>
+        <v>420253.9</v>
       </c>
       <c r="D21" t="n">
-        <v>54772.21</v>
+        <v>134693.58</v>
+      </c>
+      <c r="E21" t="n">
+        <v>93559.42</v>
+      </c>
+      <c r="F21" t="n">
+        <v>74847.53999999999</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +912,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>262584.56</v>
+        <v>622982.9399999999</v>
       </c>
       <c r="C22" t="n">
-        <v>198106.64</v>
+        <v>383655.77</v>
       </c>
       <c r="D22" t="n">
-        <v>64477.91</v>
+        <v>142647.61</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96679.56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>77343.64999999999</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +934,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>257260</v>
+        <v>612062.78</v>
       </c>
       <c r="C23" t="n">
-        <v>164580.32</v>
+        <v>324275.36</v>
       </c>
       <c r="D23" t="n">
-        <v>92679.67999999999</v>
+        <v>132280.31</v>
+      </c>
+      <c r="E23" t="n">
+        <v>155507.11</v>
+      </c>
+      <c r="F23" t="n">
+        <v>124405.69</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +956,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>261897.53</v>
+        <v>621048.97</v>
       </c>
       <c r="C24" t="n">
-        <v>157427.76</v>
+        <v>311038.91</v>
       </c>
       <c r="D24" t="n">
-        <v>104469.77</v>
+        <v>181948.57</v>
+      </c>
+      <c r="E24" t="n">
+        <v>128061.49</v>
+      </c>
+      <c r="F24" t="n">
+        <v>102449.19</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +978,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>284123.05</v>
+        <v>674887.65</v>
       </c>
       <c r="C25" t="n">
-        <v>216812.11</v>
+        <v>419995.55</v>
       </c>
       <c r="D25" t="n">
-        <v>67310.94</v>
+        <v>189516.58</v>
+      </c>
+      <c r="E25" t="n">
+        <v>65375.52</v>
+      </c>
+      <c r="F25" t="n">
+        <v>52300.42</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +1000,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>265297.21</v>
+        <v>627215.6800000001</v>
       </c>
       <c r="C26" t="n">
-        <v>196683.79</v>
+        <v>380110.64</v>
       </c>
       <c r="D26" t="n">
-        <v>68613.42999999999</v>
+        <v>165171.21</v>
+      </c>
+      <c r="E26" t="n">
+        <v>81933.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>65547.06</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +1022,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>271862.93</v>
+        <v>640002.59</v>
       </c>
       <c r="C27" t="n">
-        <v>202755.77</v>
+        <v>389986.26</v>
       </c>
       <c r="D27" t="n">
-        <v>69107.17</v>
+        <v>183774.22</v>
+      </c>
+      <c r="E27" t="n">
+        <v>66242.10000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>52993.68</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +1044,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268882.91</v>
+        <v>633678.7</v>
       </c>
       <c r="C28" t="n">
-        <v>202806.03</v>
+        <v>390149.99</v>
       </c>
       <c r="D28" t="n">
-        <v>66076.88</v>
+        <v>177662.73</v>
+      </c>
+      <c r="E28" t="n">
+        <v>65865.98</v>
+      </c>
+      <c r="F28" t="n">
+        <v>52692.79</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +1066,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>307687.62</v>
+        <v>720457.52</v>
       </c>
       <c r="C29" t="n">
-        <v>189169.1</v>
+        <v>368230.66</v>
       </c>
       <c r="D29" t="n">
-        <v>118518.52</v>
+        <v>157533.08</v>
+      </c>
+      <c r="E29" t="n">
+        <v>194693.77</v>
+      </c>
+      <c r="F29" t="n">
+        <v>155755.02</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +1088,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>278416.89</v>
+        <v>651959.5</v>
       </c>
       <c r="C30" t="n">
-        <v>187010.72</v>
+        <v>361035.52</v>
       </c>
       <c r="D30" t="n">
-        <v>91406.17</v>
+        <v>188583.13</v>
+      </c>
+      <c r="E30" t="n">
+        <v>102340.85</v>
+      </c>
+      <c r="F30" t="n">
+        <v>81872.67999999999</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +1110,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>283415.27</v>
+        <v>661532.16</v>
       </c>
       <c r="C31" t="n">
-        <v>176616.97</v>
+        <v>342263.75</v>
       </c>
       <c r="D31" t="n">
-        <v>106798.3</v>
+        <v>167985.66</v>
+      </c>
+      <c r="E31" t="n">
+        <v>151282.76</v>
+      </c>
+      <c r="F31" t="n">
+        <v>121026.21</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +1132,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285361.24</v>
+        <v>664979.12</v>
       </c>
       <c r="C32" t="n">
-        <v>220476</v>
+        <v>418581.42</v>
       </c>
       <c r="D32" t="n">
-        <v>64885.24</v>
+        <v>186688.91</v>
+      </c>
+      <c r="E32" t="n">
+        <v>59708.79</v>
+      </c>
+      <c r="F32" t="n">
+        <v>47767.03</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +1154,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>330360.98</v>
+        <v>763891.34</v>
       </c>
       <c r="C33" t="n">
-        <v>239399.26</v>
+        <v>453365.48</v>
       </c>
       <c r="D33" t="n">
-        <v>90961.72</v>
+        <v>221229.91</v>
+      </c>
+      <c r="E33" t="n">
+        <v>89295.96000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>71436.77</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +1176,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>295423.6</v>
+        <v>684149.55</v>
       </c>
       <c r="C34" t="n">
-        <v>196805.18</v>
+        <v>376032.34</v>
       </c>
       <c r="D34" t="n">
-        <v>98618.42</v>
+        <v>158586.1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>149531.11</v>
+      </c>
+      <c r="F34" t="n">
+        <v>119624.89</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +1198,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>293828.87</v>
+        <v>680449.95</v>
       </c>
       <c r="C35" t="n">
-        <v>180032.38</v>
+        <v>346712.22</v>
       </c>
       <c r="D35" t="n">
-        <v>113796.49</v>
+        <v>143578.47</v>
+      </c>
+      <c r="E35" t="n">
+        <v>190159.26</v>
+      </c>
+      <c r="F35" t="n">
+        <v>152127.41</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +1220,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>306900.99</v>
+        <v>706061.48</v>
       </c>
       <c r="C36" t="n">
-        <v>203228.75</v>
+        <v>385966.63</v>
       </c>
       <c r="D36" t="n">
-        <v>103672.24</v>
+        <v>157305.92</v>
+      </c>
+      <c r="E36" t="n">
+        <v>162788.92</v>
+      </c>
+      <c r="F36" t="n">
+        <v>130231.14</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +1242,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>331050.35</v>
+        <v>762974.86</v>
       </c>
       <c r="C37" t="n">
-        <v>220160.62</v>
+        <v>418703.44</v>
       </c>
       <c r="D37" t="n">
-        <v>110889.73</v>
+        <v>185182.22</v>
+      </c>
+      <c r="E37" t="n">
+        <v>159089.2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>127271.36</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1264,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>311309.96</v>
+        <v>713744.54</v>
       </c>
       <c r="C38" t="n">
-        <v>232212.71</v>
+        <v>434985.14</v>
       </c>
       <c r="D38" t="n">
-        <v>79097.25</v>
+        <v>201134.27</v>
+      </c>
+      <c r="E38" t="n">
+        <v>77625.14</v>
+      </c>
+      <c r="F38" t="n">
+        <v>62100.11</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +1286,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>304274.95</v>
+        <v>699071.4399999999</v>
       </c>
       <c r="C39" t="n">
-        <v>221363.52</v>
+        <v>416390.45</v>
       </c>
       <c r="D39" t="n">
-        <v>82911.42999999999</v>
+        <v>199985.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>82695.48</v>
+      </c>
+      <c r="F39" t="n">
+        <v>66156.39</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +1308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>311286.75</v>
+        <v>712467.61</v>
       </c>
       <c r="C40" t="n">
-        <v>242007.56</v>
+        <v>451050.36</v>
       </c>
       <c r="D40" t="n">
-        <v>69279.19</v>
+        <v>142988.84</v>
+      </c>
+      <c r="E40" t="n">
+        <v>118428.41</v>
+      </c>
+      <c r="F40" t="n">
+        <v>94742.73</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +1330,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>354996.6</v>
+        <v>808159.25</v>
       </c>
       <c r="C41" t="n">
-        <v>246524.9</v>
+        <v>461323.35</v>
       </c>
       <c r="D41" t="n">
-        <v>108471.7</v>
+        <v>202908.36</v>
+      </c>
+      <c r="E41" t="n">
+        <v>143927.53</v>
+      </c>
+      <c r="F41" t="n">
+        <v>115142.02</v>
       </c>
     </row>
   </sheetData>
